--- a/xlsx/新西兰_intext.xlsx
+++ b/xlsx/新西兰_intext.xlsx
@@ -29,7 +29,7 @@
     <t>紐西蘭王國</t>
   </si>
   <si>
-    <t>政策_政策_美國_新西兰</t>
+    <t>体育运动_体育运动_南非_新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
